--- a/spec/ConvSpec-006-008-v1.7.xlsx
+++ b/spec/ConvSpec-006-008-v1.7.xlsx
@@ -2534,15 +2534,6 @@
     <t>## - http://id.loc.gov/vocabulary/mscript/l ; add rdfs:label "Tamil"</t>
   </si>
   <si>
-    <t># - "0 - successive" ; add rdfs:label "Successive entry"</t>
-  </si>
-  <si>
-    <t># - "1 - latest" ; add rdfs:label "Latest entry"</t>
-  </si>
-  <si>
-    <t># - "2 - integrated" ; add rdfs:label "Integrated entry"</t>
-  </si>
-  <si>
     <t>## - http://id.loc.gov/authorities/genreForms/gf2017027218 ; add rdfs:label "art"</t>
   </si>
   <si>
@@ -2678,13 +2669,22 @@
     <t>W - supplementaryContent - SupplementaryContent - http://id.loc.gov/vocabulary/msupplcont/film ; add rdfs:label "filmography"</t>
   </si>
   <si>
-    <t>I - note - Note - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/orig"</t>
-  </si>
-  <si>
-    <t>W - adminMetadata - AdminMetadata - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/metaentry"</t>
-  </si>
-  <si>
-    <t>Fields 006, 008 - Fixed general and additional - v1.7, 08/04/2021</t>
+    <t>I - note - Note - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/orig"</t>
+  </si>
+  <si>
+    <t>W - adminMetadata - AdminMetadata - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/metaentry"</t>
+  </si>
+  <si>
+    <t># - "0 - successive"</t>
+  </si>
+  <si>
+    <t># - "1 - latest"</t>
+  </si>
+  <si>
+    <t># - "2 - integrated"</t>
+  </si>
+  <si>
+    <t>Fields 006, 008 - Fixed general and additional - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -3112,9 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F598"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4149,7 +4147,7 @@
         <v>119</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -7257,26 +7255,26 @@
     </row>
     <row r="498" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B498" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="B498" s="5" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="499" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A499" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B499" s="5" t="s">
         <v>862</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="500" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B500" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="B500" s="5" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -7318,26 +7316,26 @@
     </row>
     <row r="505" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A505" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="506" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A506" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="507" spans="1:4" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A507" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -7362,7 +7360,7 @@
         <v>427</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C510" s="9"/>
       <c r="D510" s="9"/>
@@ -7382,7 +7380,7 @@
         <v>93</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C512" s="9"/>
       <c r="D512" s="9"/>
@@ -7392,7 +7390,7 @@
         <v>94</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C513" s="9"/>
       <c r="D513" s="9"/>
@@ -7402,7 +7400,7 @@
         <v>95</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C514" s="9"/>
       <c r="D514" s="9"/>
@@ -7412,17 +7410,17 @@
         <v>96</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C515" s="9"/>
       <c r="D515" s="9"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C516" s="9"/>
       <c r="D516" s="9"/>
@@ -7432,7 +7430,7 @@
         <v>97</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C517" s="9"/>
       <c r="D517" s="9"/>
@@ -7442,7 +7440,7 @@
         <v>98</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C518" s="9"/>
       <c r="D518" s="9"/>
@@ -7452,7 +7450,7 @@
         <v>99</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C519" s="9"/>
       <c r="D519" s="9"/>
@@ -7462,7 +7460,7 @@
         <v>101</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C520" s="9"/>
       <c r="D520" s="9"/>
@@ -7678,15 +7676,15 @@
         <v>446</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>823</v>
+        <v>870</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
@@ -7694,15 +7692,15 @@
         <v>448</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>825</v>
+        <v>872</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
@@ -7819,7 +7817,7 @@
         <v>458</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C565" s="6"/>
     </row>
@@ -7828,7 +7826,7 @@
         <v>459</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C566" s="8"/>
     </row>
@@ -7837,7 +7835,7 @@
         <v>460</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C567" s="8"/>
     </row>
@@ -7846,7 +7844,7 @@
         <v>461</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C568" s="8"/>
     </row>
@@ -7855,7 +7853,7 @@
         <v>462</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C569" s="8"/>
     </row>
@@ -7873,7 +7871,7 @@
         <v>17</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C571" s="6"/>
     </row>
@@ -7882,7 +7880,7 @@
         <v>463</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C572" s="6"/>
     </row>
@@ -7891,7 +7889,7 @@
         <v>18</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C573" s="6"/>
     </row>
@@ -7900,7 +7898,7 @@
         <v>21</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C574" s="6"/>
     </row>
@@ -7909,7 +7907,7 @@
         <v>19</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C575" s="6"/>
     </row>
@@ -7918,7 +7916,7 @@
         <v>20</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C576" s="6"/>
     </row>
@@ -7927,7 +7925,7 @@
         <v>464</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C577" s="6"/>
     </row>
@@ -7936,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C578" s="6"/>
     </row>
@@ -7945,7 +7943,7 @@
         <v>465</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C579" s="6"/>
     </row>
@@ -7954,7 +7952,7 @@
         <v>15</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C580" s="6"/>
     </row>
@@ -7963,7 +7961,7 @@
         <v>16</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C581" s="6"/>
     </row>
@@ -7972,7 +7970,7 @@
         <v>26</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C582" s="6"/>
     </row>
@@ -7981,7 +7979,7 @@
         <v>466</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C583" s="6"/>
     </row>
@@ -8014,7 +8012,7 @@
         <v>468</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C587" s="6"/>
     </row>
@@ -8023,7 +8021,7 @@
         <v>469</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C588" s="6"/>
     </row>
@@ -8032,7 +8030,7 @@
         <v>470</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C589" s="6"/>
     </row>
@@ -8059,7 +8057,7 @@
         <v>471</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C592" s="6"/>
     </row>
